--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_07_beg.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_07_beg.xlsx
@@ -456,7 +456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Tch, another failure. He’s flying in a nice arc this time though.
+    <t xml:space="preserve">[name="Archosauria A"]  Tch, another failure. He's flying in a nice arc this time though.
 </t>
   </si>
   <si>
@@ -464,7 +464,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  No idea. He’ll come running back after a while anyway. Let’s keep going.
+    <t xml:space="preserve">[name="Archosauria A"]  No idea. He'll come running back after a while anyway. Let's keep going.
 </t>
   </si>
   <si>
@@ -472,7 +472,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Haha, this looks like a good port, I’m plugging it in!
+    <t xml:space="preserve">[name="Archosauria A"]  Haha, this looks like a good port, I'm plugging it in!
 </t>
   </si>
   <si>
@@ -480,11 +480,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  No. Do you even know what you’re doing?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  What are you yelling for? I’ve never seen an engine like this before, just let me experiment a bit!
+    <t xml:space="preserve">[name="Archosauria B"]  No. Do you even know what you're doing?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  What are you yelling for? I've never seen an engine like this before, just let me experiment a bit!
 </t>
   </si>
   <si>
@@ -496,11 +496,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  You’re the one who’s messing around! It obviously goes here!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria C"]  What are you two idiots doing? The gas pipe isn’t even connected. Let me do it!
+    <t xml:space="preserve">[name="Archosauria A"]  You're the one who's messing around! It obviously goes here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria C"]  What are you two idiots doing? The gas pipe isn't even connected. Let me do it!
 </t>
   </si>
   <si>
@@ -512,7 +512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  I’m back!
+    <t xml:space="preserve">[name="High Priest"]  I'm back!
 </t>
   </si>
   <si>
@@ -520,11 +520,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  But, High Priest, you always come back safe. Everyone’s gotten used to it!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Stop wasting time, let’s get on with the testing!
+    <t xml:space="preserve">[name="Archosauria A"]  But, High Priest, you always come back safe. Everyone's gotten used to it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  Stop wasting time, let's get on with the testing!
 </t>
   </si>
   <si>
@@ -536,19 +536,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Big Ugly, my child, it’s time to wake up!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Ohh! Great Chief, it’s moving!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria B"]  This wonderful engine sound! I’ve never heard anything so amazing!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria C"]  Haha, told you I’d get it done!
+    <t xml:space="preserve">[name="High Priest"]  Big Ugly, my child, it's time to wake up!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  Ohh! Great Chief, it's moving!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria B"]  This wonderful engine sound! I've never heard anything so amazing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria C"]  Haha, told you I'd get it done!
 </t>
   </si>
   <si>
@@ -572,23 +572,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="High Priest"]  Ahh, the Big Ugly, once but a pile of scrap metal, is now truly majestic. I’m so moved. It makes me want to sing!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  But you’re bad at singing.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  I’m sorry?! Fine. I think I have a real talent for singing though... Terrible!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Oh? Maybe it’s a style problem.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="High Priest"]  Yes, that’s right. That has to be the reason. Next time, I’ll try singing in bel canto!
+    <t xml:space="preserve">[name="High Priest"]  Ahh, the Big Ugly, once but a pile of scrap metal, is now truly majestic. I'm so moved. It makes me want to sing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  But you're bad at singing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  I'm sorry?! Fine. I think I have a real talent for singing though... Terrible!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Oh? Maybe it's a style problem.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="High Priest"]  Yes, that's right. That has to be the reason. Next time, I'll try singing in bel canto!
 </t>
   </si>
   <si>
@@ -600,7 +600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria"]  No! It’s a weirdo carrying a pile of weapons!
+    <t xml:space="preserve">[name="Archosauria"]  No! It's a weirdo carrying a pile of weapons!
 </t>
   </si>
   <si>
@@ -608,11 +608,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Zumama’s tribe should be right ahead.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Damn, look what she’s done to her own tribe.
+    <t xml:space="preserve">[name="Tomimi"]  Zumama's tribe should be right ahead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Damn, look what she's done to her own tribe.
 </t>
   </si>
   <si>
@@ -628,7 +628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  Damn Reunion, you’re trying to steal Kay’s name now! That’s something even more precious than honey biscuits! You’ll pay for this!
+    <t xml:space="preserve">[name="Ceobe"]  Damn Reunion, you're trying to steal Kay's name now! That's something even more precious than honey biscuits! You'll pay for this!
 </t>
   </si>
   <si>
@@ -636,15 +636,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Where did this weirdo come from? She’s too strong!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria C"]  I can’t understand what she’s saying. What the hell’s a Reunion?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Utage"]  Eh, isn’t that Kay?
+    <t xml:space="preserve">[name="Archosauria B"]  Where did this weirdo come from? She's too strong!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria C"]  I can't understand what she's saying. What the hell's a Reunion?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Utage"]  Eh, isn't that Kay?
 </t>
   </si>
   <si>
@@ -652,15 +652,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Blaze"]  Sounds like Kay’s making a ruckus in there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Let’s calm her down first!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Kay, stop!;......;Get ‘em, Kay!",values="1;2;3")]
+    <t xml:space="preserve">[name="Blaze"]  Sounds like Kay's making a ruckus in there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Let's calm her down first!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Kay, stop!;......;Get 'em, Kay!",values="1;2;3")]
 </t>
   </si>
   <si>
